--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_25.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/Nextcloud/project-vwl4makro/09_Forschung/Drittmittel/DZ2022/WP1_Meta_monetary/HIWI_MP/Full text download/packages_for_full_text_download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87C4E98-D5F1-7B44-8FF5-F019C152D28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5764721B-A333-514A-A4D5-6EEDAF069CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="16960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4980" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="895">
   <si>
     <t>record_id</t>
   </si>
@@ -2721,9 +2721,6 @@
   </si>
   <si>
     <t>ph</t>
-  </si>
-  <si>
-    <t>waiting for IRF extraction by CG</t>
   </si>
   <si>
     <t>fp</t>
@@ -2733,7 +2730,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2752,25 +2749,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2782,11 +2767,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2797,12 +2781,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3117,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V43" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI53" sqref="AI53"/>
+    <sheetView tabSelected="1" topLeftCell="O72" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC87" sqref="AC87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8380,7 +8360,7 @@
         <v>881</v>
       </c>
       <c r="Z71" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AG71">
         <v>1</v>
@@ -9508,7 +9488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>7398</v>
       </c>
@@ -9577,9 +9557,6 @@
       </c>
       <c r="Y87" t="s">
         <v>881</v>
-      </c>
-      <c r="AF87" s="6" t="s">
-        <v>894</v>
       </c>
       <c r="AG87">
         <v>1</v>
